--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43478,6 +43478,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43513,6 +43513,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43548,6 +43548,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43583,6 +43583,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43620,6 +43620,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43657,6 +43657,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>16700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43692,6 +43692,43 @@
         <v>16700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43729,6 +43729,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43764,6 +43764,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43801,6 +43801,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>25600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43836,6 +43836,43 @@
         <v>25600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43873,6 +43873,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43910,6 +43910,76 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>127200</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>24700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43980,6 +43980,76 @@
         <v>24700</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>32900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44050,6 +44050,41 @@
         <v>32900</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>12300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44085,6 +44085,41 @@
         <v>12300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44120,6 +44120,41 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44155,6 +44155,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44190,6 +44190,76 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44260,6 +44260,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>37800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44295,6 +44295,41 @@
         <v>37800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>28200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2621"/>
+  <dimension ref="A1:I2622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92665,6 +92665,41 @@
         <v>28200</v>
       </c>
     </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2622" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2622" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2622" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2622" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2622" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2622"/>
+  <dimension ref="A1:I2623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92700,6 +92700,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2623" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2623" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2623" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2623" t="n">
+        <v>93000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2623"/>
+  <dimension ref="A1:I2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92735,6 +92735,41 @@
         <v>93000</v>
       </c>
     </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H2624" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2624" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2624"/>
+  <dimension ref="A1:I2625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92770,6 +92770,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2625" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2625" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2625" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2625" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2625" t="n">
+        <v>24500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2625"/>
+  <dimension ref="A1:I2626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92805,6 +92805,41 @@
         <v>24500</v>
       </c>
     </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2626" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2626" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2626" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2626" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2626" t="n">
+        <v>17200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2626"/>
+  <dimension ref="A1:I2627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92840,6 +92840,41 @@
         <v>17200</v>
       </c>
     </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2627" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2627" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2627" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2627" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2627" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2627"/>
+  <dimension ref="A1:I2628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92875,6 +92875,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2628" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2628" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2628" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H2628" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2628" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2628"/>
+  <dimension ref="A1:I2629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92910,6 +92910,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2629" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2629" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2629" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2629" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2629" t="n">
+        <v>22300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2629"/>
+  <dimension ref="A1:I2630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92945,6 +92945,41 @@
         <v>22300</v>
       </c>
     </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2630" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2630" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2630" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2630" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2630" t="n">
+        <v>9700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2630"/>
+  <dimension ref="A1:I2631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92980,6 +92980,43 @@
         <v>9700</v>
       </c>
     </row>
+    <row r="2631">
+      <c r="A2631" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2631" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2631" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2631" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2631" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2631"/>
+  <dimension ref="A1:I2632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93017,6 +93017,41 @@
         </is>
       </c>
     </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2632" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2632" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2632" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2632" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2632" t="n">
+        <v>361000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2632"/>
+  <dimension ref="A1:I2633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93052,6 +93052,41 @@
         <v>361000</v>
       </c>
     </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2633" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2633" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2633" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2633" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2633" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2633"/>
+  <dimension ref="A1:I2634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93087,6 +93087,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2634" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2634" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G2634" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2634" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I2634" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2634"/>
+  <dimension ref="A1:I2635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93122,6 +93122,43 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2635" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F2635" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G2635" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H2635" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I2635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2828.xlsx
+++ b/data/2828.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2635"/>
+  <dimension ref="A1:I2636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93159,6 +93159,41 @@
         </is>
       </c>
     </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>CIHLDG</t>
+        </is>
+      </c>
+      <c r="E2636" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2636" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2636" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2636" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2636" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
